--- a/api-mapping.xlsx
+++ b/api-mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EppLoad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DrsLoad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F49509-8DA9-435E-9F6C-87805392E7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB3B4A0-25A1-4C62-A236-4A5E622A1A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{4D5A77EA-79A3-4D58-8216-51A32A05CB26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23520" xr2:uid="{4D5A77EA-79A3-4D58-8216-51A32A05CB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>CONTACTCREATE</t>
   </si>
@@ -153,13 +153,19 @@
   </si>
   <si>
     <t>HostObject</t>
+  </si>
+  <si>
+    <t>NOT SUPPORTED!</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +177,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,9 +209,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,14 +237,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D300914-587A-413B-962A-A40D854D070F}" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E18" xr:uid="{8D300914-587A-413B-962A-A40D854D070F}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8D300914-587A-413B-962A-A40D854D070F}" name="Table1" displayName="Table1" ref="A1:F18" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F18" xr:uid="{8D300914-587A-413B-962A-A40D854D070F}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{80495FE5-3423-4EF7-877A-BD59ED3B7688}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{5318D8C8-4F29-42E1-8F90-0EB93025A023}" name="HTTP method"/>
     <tableColumn id="3" xr3:uid="{C56EE21B-3B2C-4138-9561-FC78C1FAE981}" name="URI"/>
     <tableColumn id="4" xr3:uid="{B9268023-BFE9-4D38-8BF0-478CB014374E}" name="Request Body"/>
     <tableColumn id="5" xr3:uid="{91DC4FC2-1280-4449-B51E-6B386CDE66A7}" name="Response body"/>
+    <tableColumn id="6" xr3:uid="{A97001D9-41A0-4F05-943A-C3F43333E5F4}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -533,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C16E6D-8762-4FCA-BA34-68D1FB3C1A1C}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,9 +561,10 @@
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -564,8 +580,11 @@
       <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -578,8 +597,11 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -593,7 +615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -607,7 +629,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -618,7 +640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -631,8 +653,11 @@
       <c r="D6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -646,7 +671,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -660,7 +685,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -671,7 +696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -682,7 +707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -696,21 +721,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -724,7 +753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -737,8 +766,11 @@
       <c r="D14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -752,7 +784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
